--- a/data/Chapter08.xlsx
+++ b/data/Chapter08.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378C9F26-0E3C-4334-8865-DC14ACD6411B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="16" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="18" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="19" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="20" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>C1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,13 +41,37 @@
   </si>
   <si>
     <t>C3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>col1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>col2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>col3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,7 +128,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -176,6 +203,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -211,6 +255,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,57 +447,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -447,11 +503,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -527,4 +583,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD182E4-673C-4C60-871E-80749BE4F2AE}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F587AC-D9C8-4E88-BA89-8BE75D49D74C}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>